--- a/data/MisInfoText/Analysis_output/news_and_blog/MisInfoText_news_and_blog_lexical_density.xlsx
+++ b/data/MisInfoText/Analysis_output/news_and_blog/MisInfoText_news_and_blog_lexical_density.xlsx
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.4921739130434782</v>
+        <v>0.5615079365079365</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.4684512428298279</v>
+        <v>0.5489457831325302</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.4730021598272138</v>
+        <v>0.5364455364455365</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1697,7 @@
         <v>177</v>
       </c>
       <c r="B2">
-        <v>0.4963680387409201</v>
+        <v>0.5790960451977402</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1705,7 +1705,7 @@
         <v>178</v>
       </c>
       <c r="B3">
-        <v>0.5387673956262425</v>
+        <v>0.6076233183856502</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1713,7 +1713,7 @@
         <v>179</v>
       </c>
       <c r="B4">
-        <v>0.5034246575342466</v>
+        <v>0.5730994152046783</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1721,7 +1721,7 @@
         <v>180</v>
       </c>
       <c r="B5">
-        <v>0.4980205859065717</v>
+        <v>0.5627822944896116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1729,7 +1729,7 @@
         <v>181</v>
       </c>
       <c r="B6">
-        <v>0.4932079414838035</v>
+        <v>0.5522914218566393</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1737,7 +1737,7 @@
         <v>182</v>
       </c>
       <c r="B7">
-        <v>0.4746787603930461</v>
+        <v>0.5432525951557093</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>183</v>
       </c>
       <c r="B8">
-        <v>0.4521739130434783</v>
+        <v>0.5189620758483033</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>184</v>
       </c>
       <c r="B9">
-        <v>0.4824902723735409</v>
+        <v>0.5688073394495413</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>185</v>
       </c>
       <c r="B10">
-        <v>0.4592105263157895</v>
+        <v>0.5279878971255674</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>186</v>
       </c>
       <c r="B11">
-        <v>0.4416243654822335</v>
+        <v>0.5506329113924051</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>187</v>
       </c>
       <c r="B12">
-        <v>0.4281437125748503</v>
+        <v>0.4982578397212544</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>188</v>
       </c>
       <c r="B13">
-        <v>0.5307262569832403</v>
+        <v>0.594959495949595</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>189</v>
       </c>
       <c r="B14">
-        <v>0.538135593220339</v>
+        <v>0.5934579439252337</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>190</v>
       </c>
       <c r="B15">
-        <v>0.5157068062827225</v>
+        <v>0.5843373493975904</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>191</v>
       </c>
       <c r="B16">
-        <v>0.4921465968586388</v>
+        <v>0.5531496062992126</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>192</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5562130177514792</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>193</v>
       </c>
       <c r="B18">
-        <v>0.5139664804469274</v>
+        <v>0.5897435897435898</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>194</v>
       </c>
       <c r="B19">
-        <v>0.5034674063800277</v>
+        <v>0.5605590062111802</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1841,7 +1841,7 @@
         <v>195</v>
       </c>
       <c r="B20">
-        <v>0.4634655532359082</v>
+        <v>0.5323741007194245</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>196</v>
       </c>
       <c r="B21">
-        <v>0.4680306905370844</v>
+        <v>0.5170454545454546</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>197</v>
       </c>
       <c r="B22">
-        <v>0.4539325842696629</v>
+        <v>0.5126903553299492</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1865,7 +1865,7 @@
         <v>198</v>
       </c>
       <c r="B23">
-        <v>0.3996960486322189</v>
+        <v>0.4558058925476603</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>199</v>
       </c>
       <c r="B24">
-        <v>0.4679245283018868</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>200</v>
       </c>
       <c r="B25">
-        <v>0.4819277108433735</v>
+        <v>0.5194805194805194</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1889,7 +1889,7 @@
         <v>201</v>
       </c>
       <c r="B26">
-        <v>0.4131736526946108</v>
+        <v>0.4815465729349737</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>202</v>
       </c>
       <c r="B27">
-        <v>0.4361233480176211</v>
+        <v>0.5025380710659898</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>203</v>
       </c>
       <c r="B28">
-        <v>0.4682926829268293</v>
+        <v>0.5485714285714286</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>204</v>
       </c>
       <c r="B29">
-        <v>0.5130260521042084</v>
+        <v>0.5727069351230425</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1921,7 +1921,7 @@
         <v>205</v>
       </c>
       <c r="B30">
-        <v>0.5294117647058824</v>
+        <v>0.6059322033898306</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>206</v>
       </c>
       <c r="B31">
-        <v>0.4836601307189543</v>
+        <v>0.5634517766497462</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>207</v>
       </c>
       <c r="B32">
-        <v>0.452914798206278</v>
+        <v>0.5489130434782609</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>208</v>
       </c>
       <c r="B33">
-        <v>0.5042016806722689</v>
+        <v>0.5410334346504559</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1953,7 +1953,7 @@
         <v>209</v>
       </c>
       <c r="B34">
-        <v>0.4072164948453608</v>
+        <v>0.5107758620689655</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1961,7 +1961,7 @@
         <v>210</v>
       </c>
       <c r="B35">
-        <v>0.478448275862069</v>
+        <v>0.5362318840579711</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>211</v>
       </c>
       <c r="B36">
-        <v>0.4444444444444444</v>
+        <v>0.5496183206106871</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1977,7 +1977,7 @@
         <v>212</v>
       </c>
       <c r="B37">
-        <v>0.4487179487179487</v>
+        <v>0.5363984674329502</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>213</v>
       </c>
       <c r="B38">
-        <v>0.4681528662420382</v>
+        <v>0.5268817204301075</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1993,7 +1993,7 @@
         <v>214</v>
       </c>
       <c r="B39">
-        <v>0.5507246376811594</v>
+        <v>0.6007905138339921</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>215</v>
       </c>
       <c r="B40">
-        <v>0.4819277108433735</v>
+        <v>0.5128205128205128</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>216</v>
       </c>
       <c r="B41">
-        <v>0.4853333333333333</v>
+        <v>0.5352941176470588</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>217</v>
       </c>
       <c r="B42">
-        <v>0.4615384615384616</v>
+        <v>0.5116279069767442</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>218</v>
       </c>
       <c r="B43">
-        <v>0.4675675675675676</v>
+        <v>0.5323076923076923</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2033,7 +2033,7 @@
         <v>219</v>
       </c>
       <c r="B44">
-        <v>0.512</v>
+        <v>0.616504854368932</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>220</v>
       </c>
       <c r="B45">
-        <v>0.5140562248995983</v>
+        <v>0.6124401913875598</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2049,7 +2049,7 @@
         <v>221</v>
       </c>
       <c r="B46">
-        <v>0.4682539682539683</v>
+        <v>0.5175438596491229</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2057,7 +2057,7 @@
         <v>222</v>
       </c>
       <c r="B47">
-        <v>0.4752475247524752</v>
+        <v>0.5313653136531366</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2065,7 +2065,7 @@
         <v>223</v>
       </c>
       <c r="B48">
-        <v>0.4754098360655737</v>
+        <v>0.5404984423676013</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2073,7 +2073,7 @@
         <v>224</v>
       </c>
       <c r="B49">
-        <v>0.44921875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2081,7 +2081,7 @@
         <v>225</v>
       </c>
       <c r="B50">
-        <v>0.4554140127388535</v>
+        <v>0.5375939849624061</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2089,7 +2089,7 @@
         <v>226</v>
       </c>
       <c r="B51">
-        <v>0.4888268156424581</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2097,7 +2097,7 @@
         <v>227</v>
       </c>
       <c r="B52">
-        <v>0.5055762081784386</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2105,7 +2105,7 @@
         <v>228</v>
       </c>
       <c r="B53">
-        <v>0.512280701754386</v>
+        <v>0.5934959349593496</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>229</v>
       </c>
       <c r="B54">
-        <v>0.4748010610079575</v>
+        <v>0.557632398753894</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>230</v>
       </c>
       <c r="B55">
-        <v>0.6031746031746031</v>
+        <v>0.6826347305389222</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>231</v>
       </c>
       <c r="B56">
-        <v>0.4571026722925457</v>
+        <v>0.5142405063291139</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>232</v>
       </c>
       <c r="B57">
-        <v>0.4086629001883239</v>
+        <v>0.4800884955752213</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>233</v>
       </c>
       <c r="B58">
-        <v>0.4813895781637717</v>
+        <v>0.5672514619883041</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>234</v>
       </c>
       <c r="B59">
-        <v>0.4690721649484536</v>
+        <v>0.5055555555555555</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>235</v>
       </c>
       <c r="B60">
-        <v>0.4036363636363636</v>
+        <v>0.4723404255319149</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2169,7 +2169,7 @@
         <v>236</v>
       </c>
       <c r="B61">
-        <v>0.4755501222493888</v>
+        <v>0.5175202156334232</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>237</v>
       </c>
       <c r="B62">
-        <v>0.4567723342939481</v>
+        <v>0.5154471544715448</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>238</v>
       </c>
       <c r="B63">
-        <v>0.5666666666666667</v>
+        <v>0.6296296296296297</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>239</v>
       </c>
       <c r="B64">
-        <v>0.4191176470588235</v>
+        <v>0.4816901408450704</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>240</v>
       </c>
       <c r="B65">
-        <v>0.4342629482071713</v>
+        <v>0.5030959752321982</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>241</v>
       </c>
       <c r="B66">
-        <v>0.5204301075268817</v>
+        <v>0.5707547169811321</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>242</v>
       </c>
       <c r="B67">
-        <v>0.503727369542066</v>
+        <v>0.5942211055276382</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>243</v>
       </c>
       <c r="B68">
-        <v>0.4453125</v>
+        <v>0.4967177242888403</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2233,7 +2233,7 @@
         <v>244</v>
       </c>
       <c r="B69">
-        <v>0.4212076583210604</v>
+        <v>0.4872231686541738</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2241,7 +2241,7 @@
         <v>245</v>
       </c>
       <c r="B70">
-        <v>0.4487179487179487</v>
+        <v>0.498220640569395</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2249,7 +2249,7 @@
         <v>246</v>
       </c>
       <c r="B71">
-        <v>0.4379194630872483</v>
+        <v>0.509765625</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2257,7 +2257,7 @@
         <v>247</v>
       </c>
       <c r="B72">
-        <v>0.4481981981981982</v>
+        <v>0.4975</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2265,7 +2265,7 @@
         <v>248</v>
       </c>
       <c r="B73">
-        <v>0.4025157232704403</v>
+        <v>0.4522968197879859</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2273,7 +2273,7 @@
         <v>249</v>
       </c>
       <c r="B74">
-        <v>0.4482758620689655</v>
+        <v>0.4940476190476191</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2281,7 +2281,7 @@
         <v>250</v>
       </c>
       <c r="B75">
-        <v>0.5011547344110855</v>
+        <v>0.5864864864864865</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2289,7 +2289,7 @@
         <v>251</v>
       </c>
       <c r="B76">
-        <v>0.4814814814814815</v>
+        <v>0.5378787878787878</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2297,7 +2297,7 @@
         <v>252</v>
       </c>
       <c r="B77">
-        <v>0.5135135135135135</v>
+        <v>0.5846153846153846</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>253</v>
       </c>
       <c r="B78">
-        <v>0.4259259259259259</v>
+        <v>0.4946236559139785</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>254</v>
       </c>
       <c r="B79">
-        <v>0.4878892733564014</v>
+        <v>0.5361216730038023</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2321,7 +2321,7 @@
         <v>255</v>
       </c>
       <c r="B80">
-        <v>0.5298507462686567</v>
+        <v>0.6120689655172413</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2329,7 +2329,7 @@
         <v>256</v>
       </c>
       <c r="B81">
-        <v>0.4565217391304348</v>
+        <v>0.5121951219512195</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>257</v>
       </c>
       <c r="B82">
-        <v>0.4379947229551451</v>
+        <v>0.5271565495207667</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2345,7 +2345,7 @@
         <v>258</v>
       </c>
       <c r="B83">
-        <v>0.4887780548628429</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2353,7 +2353,7 @@
         <v>259</v>
       </c>
       <c r="B84">
-        <v>0.4964664310954063</v>
+        <v>0.5630081300813008</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2361,7 +2361,7 @@
         <v>260</v>
       </c>
       <c r="B85">
-        <v>0.5274847307051638</v>
+        <v>0.5885643256681169</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2369,7 +2369,7 @@
         <v>261</v>
       </c>
       <c r="B86">
-        <v>0.4594594594594595</v>
+        <v>0.5230769230769231</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2377,7 +2377,7 @@
         <v>262</v>
       </c>
       <c r="B87">
-        <v>0.4733333333333333</v>
+        <v>0.5233415233415234</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2385,7 +2385,7 @@
         <v>263</v>
       </c>
       <c r="B88">
-        <v>0.4886363636363636</v>
+        <v>0.5477707006369427</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2393,7 +2393,7 @@
         <v>264</v>
       </c>
       <c r="B89">
-        <v>0.4814126394052045</v>
+        <v>0.5682819383259912</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2401,7 +2401,7 @@
         <v>265</v>
       </c>
       <c r="B90">
-        <v>0.5181818181818182</v>
+        <v>0.5979020979020979</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2409,7 +2409,7 @@
         <v>266</v>
       </c>
       <c r="B91">
-        <v>0.506578947368421</v>
+        <v>0.5579710144927537</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2417,7 +2417,7 @@
         <v>267</v>
       </c>
       <c r="B92">
-        <v>0.4886363636363636</v>
+        <v>0.5477707006369427</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2425,7 +2425,7 @@
         <v>268</v>
       </c>
       <c r="B93">
-        <v>0.4699300699300699</v>
+        <v>0.5233644859813084</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2433,7 +2433,7 @@
         <v>269</v>
       </c>
       <c r="B94">
-        <v>0.4602609727164887</v>
+        <v>0.5528571428571428</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2441,7 +2441,7 @@
         <v>270</v>
       </c>
       <c r="B95">
-        <v>0.4970059880239521</v>
+        <v>0.5463576158940397</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2449,7 +2449,7 @@
         <v>271</v>
       </c>
       <c r="B96">
-        <v>0.5168831168831168</v>
+        <v>0.5875370919881305</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2457,7 +2457,7 @@
         <v>272</v>
       </c>
       <c r="B97">
-        <v>0.545774647887324</v>
+        <v>0.5942307692307692</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2465,7 +2465,7 @@
         <v>273</v>
       </c>
       <c r="B98">
-        <v>0.5097613882863341</v>
+        <v>0.5679611650485437</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>274</v>
       </c>
       <c r="B99">
-        <v>0.5228215767634855</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2481,7 +2481,7 @@
         <v>275</v>
       </c>
       <c r="B100">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2489,7 +2489,7 @@
         <v>276</v>
       </c>
       <c r="B101">
-        <v>0.4761904761904762</v>
+        <v>0.5497630331753555</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2497,7 +2497,7 @@
         <v>277</v>
       </c>
       <c r="B102">
-        <v>0.425</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2505,7 +2505,7 @@
         <v>278</v>
       </c>
       <c r="B103">
-        <v>0.4953703703703703</v>
+        <v>0.5602094240837696</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2513,7 +2513,7 @@
         <v>279</v>
       </c>
       <c r="B104">
-        <v>0.5714285714285714</v>
+        <v>0.6206896551724138</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2521,7 +2521,7 @@
         <v>280</v>
       </c>
       <c r="B105">
-        <v>0.5013333333333333</v>
+        <v>0.5565476190476191</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>281</v>
       </c>
       <c r="B106">
-        <v>0.4040816326530612</v>
+        <v>0.4593301435406699</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2537,7 +2537,7 @@
         <v>282</v>
       </c>
       <c r="B107">
-        <v>0.5144694533762058</v>
+        <v>0.5658362989323843</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2545,7 +2545,7 @@
         <v>283</v>
       </c>
       <c r="B108">
-        <v>0.4630872483221476</v>
+        <v>0.5666666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2553,7 +2553,7 @@
         <v>284</v>
       </c>
       <c r="B109">
-        <v>0.4083333333333333</v>
+        <v>0.4757281553398058</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2561,7 +2561,7 @@
         <v>285</v>
       </c>
       <c r="B110">
-        <v>0.4886363636363636</v>
+        <v>0.5477707006369427</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2569,7 +2569,7 @@
         <v>286</v>
       </c>
       <c r="B111">
-        <v>0.4974093264248705</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2577,7 +2577,7 @@
         <v>287</v>
       </c>
       <c r="B112">
-        <v>0.4911504424778761</v>
+        <v>0.5577889447236181</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2585,7 +2585,7 @@
         <v>288</v>
       </c>
       <c r="B113">
-        <v>0.4750733137829912</v>
+        <v>0.5192307692307693</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2593,7 +2593,7 @@
         <v>289</v>
       </c>
       <c r="B114">
-        <v>0.467204843592331</v>
+        <v>0.5099118942731278</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2601,7 +2601,7 @@
         <v>290</v>
       </c>
       <c r="B115">
-        <v>0.4567307692307692</v>
+        <v>0.5080213903743316</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2609,7 +2609,7 @@
         <v>291</v>
       </c>
       <c r="B116">
-        <v>0.5035714285714286</v>
+        <v>0.5691056910569106</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2617,7 +2617,7 @@
         <v>292</v>
       </c>
       <c r="B117">
-        <v>0.4046822742474916</v>
+        <v>0.4989690721649485</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2625,7 +2625,7 @@
         <v>293</v>
       </c>
       <c r="B118">
-        <v>0.5107913669064749</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2633,7 +2633,7 @@
         <v>294</v>
       </c>
       <c r="B119">
-        <v>0.4745196324143692</v>
+        <v>0.5363550519357885</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2641,7 +2641,7 @@
         <v>295</v>
       </c>
       <c r="B120">
-        <v>0.5451851851851852</v>
+        <v>0.6192893401015228</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2649,7 +2649,7 @@
         <v>296</v>
       </c>
       <c r="B121">
-        <v>0.4207119741100324</v>
+        <v>0.4676258992805755</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2657,7 +2657,7 @@
         <v>297</v>
       </c>
       <c r="B122">
-        <v>0.5115207373271889</v>
+        <v>0.5873015873015873</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2665,7 +2665,7 @@
         <v>298</v>
       </c>
       <c r="B123">
-        <v>0.4848484848484849</v>
+        <v>0.5521235521235521</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2673,7 +2673,7 @@
         <v>299</v>
       </c>
       <c r="B124">
-        <v>0.5024630541871922</v>
+        <v>0.5698324022346368</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2681,7 +2681,7 @@
         <v>300</v>
       </c>
       <c r="B125">
-        <v>0.508682328907048</v>
+        <v>0.5759717314487632</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2689,7 +2689,7 @@
         <v>301</v>
       </c>
       <c r="B126">
-        <v>0.4266666666666667</v>
+        <v>0.4923076923076923</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2697,7 +2697,7 @@
         <v>302</v>
       </c>
       <c r="B127">
-        <v>0.5537190082644629</v>
+        <v>0.6534653465346535</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2705,7 +2705,7 @@
         <v>303</v>
       </c>
       <c r="B128">
-        <v>0.5401069518716578</v>
+        <v>0.6461038961038961</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2713,7 +2713,7 @@
         <v>304</v>
       </c>
       <c r="B129">
-        <v>0.5149006622516556</v>
+        <v>0.5827067669172933</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2721,7 +2721,7 @@
         <v>305</v>
       </c>
       <c r="B130">
-        <v>0.4979253112033195</v>
+        <v>0.5633802816901409</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2729,7 +2729,7 @@
         <v>306</v>
       </c>
       <c r="B131">
-        <v>0.5277777777777778</v>
+        <v>0.598159509202454</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2737,7 +2737,7 @@
         <v>307</v>
       </c>
       <c r="B132">
-        <v>0.4836879432624113</v>
+        <v>0.5448717948717948</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2745,7 +2745,7 @@
         <v>308</v>
       </c>
       <c r="B133">
-        <v>0.5075268817204301</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2753,7 +2753,7 @@
         <v>309</v>
       </c>
       <c r="B134">
-        <v>0.4663461538461539</v>
+        <v>0.5079365079365079</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2761,7 +2761,7 @@
         <v>310</v>
       </c>
       <c r="B135">
-        <v>0.4090909090909091</v>
+        <v>0.4811827956989247</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2769,7 +2769,7 @@
         <v>311</v>
       </c>
       <c r="B136">
-        <v>0.4392857142857143</v>
+        <v>0.4959677419354839</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2777,7 +2777,7 @@
         <v>312</v>
       </c>
       <c r="B137">
-        <v>0.4840834248079034</v>
+        <v>0.5431034482758621</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2785,7 +2785,7 @@
         <v>313</v>
       </c>
       <c r="B138">
-        <v>0.4493243243243243</v>
+        <v>0.5050761421319797</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2793,7 +2793,7 @@
         <v>314</v>
       </c>
       <c r="B139">
-        <v>0.4365079365079365</v>
+        <v>0.497737556561086</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2801,7 +2801,7 @@
         <v>315</v>
       </c>
       <c r="B140">
-        <v>0.4697406340057637</v>
+        <v>0.5397350993377483</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2809,7 +2809,7 @@
         <v>316</v>
       </c>
       <c r="B141">
-        <v>0.5141361256544502</v>
+        <v>0.5729665071770335</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +2980,7 @@
         <v>317</v>
       </c>
       <c r="B2">
-        <v>0.5567226890756303</v>
+        <v>0.6324582338902148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>318</v>
       </c>
       <c r="B3">
-        <v>0.5068119891008175</v>
+        <v>0.5727554179566563</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>319</v>
       </c>
       <c r="B4">
-        <v>0.4633596392333709</v>
+        <v>0.5150564617314931</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3004,7 +3004,7 @@
         <v>320</v>
       </c>
       <c r="B5">
-        <v>0.4150943396226415</v>
+        <v>0.4748201438848921</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3012,7 +3012,7 @@
         <v>321</v>
       </c>
       <c r="B6">
-        <v>0.4685212298682284</v>
+        <v>0.517799352750809</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>322</v>
       </c>
       <c r="B7">
-        <v>0.5127942681678608</v>
+        <v>0.5914489311163895</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3028,7 +3028,7 @@
         <v>323</v>
       </c>
       <c r="B8">
-        <v>0.4858536585365854</v>
+        <v>0.5486725663716814</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3036,7 +3036,7 @@
         <v>324</v>
       </c>
       <c r="B9">
-        <v>0.4832116788321168</v>
+        <v>0.5474209650582362</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3044,7 +3044,7 @@
         <v>325</v>
       </c>
       <c r="B10">
-        <v>0.5063469675599436</v>
+        <v>0.5609375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3052,7 +3052,7 @@
         <v>326</v>
       </c>
       <c r="B11">
-        <v>0.4373865698729583</v>
+        <v>0.5331858407079646</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3060,7 +3060,7 @@
         <v>327</v>
       </c>
       <c r="B12">
-        <v>0.4551724137931035</v>
+        <v>0.5219123505976095</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>328</v>
       </c>
       <c r="B13">
-        <v>0.4437869822485207</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>329</v>
       </c>
       <c r="B14">
-        <v>0.3870967741935484</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3084,7 +3084,7 @@
         <v>330</v>
       </c>
       <c r="B15">
-        <v>0.5732899022801303</v>
+        <v>0.6308243727598566</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3092,7 +3092,7 @@
         <v>331</v>
       </c>
       <c r="B16">
-        <v>0.4897959183673469</v>
+        <v>0.5565217391304348</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>332</v>
       </c>
       <c r="B17">
-        <v>0.4769647696476965</v>
+        <v>0.5635179153094463</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3108,7 +3108,7 @@
         <v>333</v>
       </c>
       <c r="B18">
-        <v>0.5058448459086079</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>334</v>
       </c>
       <c r="B19">
-        <v>0.4482758620689655</v>
+        <v>0.5064935064935064</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3124,7 +3124,7 @@
         <v>335</v>
       </c>
       <c r="B20">
-        <v>0.4878048780487805</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3132,7 +3132,7 @@
         <v>336</v>
       </c>
       <c r="B21">
-        <v>0.484593837535014</v>
+        <v>0.5372670807453416</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>337</v>
       </c>
       <c r="B22">
-        <v>0.491304347826087</v>
+        <v>0.5355450236966824</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>338</v>
       </c>
       <c r="B23">
-        <v>0.5414012738853503</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>339</v>
       </c>
       <c r="B24">
-        <v>0.4536082474226804</v>
+        <v>0.5486284289276808</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>340</v>
       </c>
       <c r="B25">
-        <v>0.4719710669077758</v>
+        <v>0.5252525252525253</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>341</v>
       </c>
       <c r="B26">
-        <v>0.5119760479041916</v>
+        <v>0.5681063122923588</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>342</v>
       </c>
       <c r="B27">
-        <v>0.5088757396449705</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>343</v>
       </c>
       <c r="B28">
-        <v>0.4892915980230643</v>
+        <v>0.5681381957773513</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>344</v>
       </c>
       <c r="B29">
-        <v>0.5245683930942895</v>
+        <v>0.5703918722786647</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>345</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.5363128491620112</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>346</v>
       </c>
       <c r="B31">
-        <v>0.4352941176470588</v>
+        <v>0.5274949083503055</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>347</v>
       </c>
       <c r="B32">
-        <v>0.5077452667814114</v>
+        <v>0.5619047619047619</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>348</v>
       </c>
       <c r="B33">
-        <v>0.5406779661016949</v>
+        <v>0.6207233626588465</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>349</v>
       </c>
       <c r="B34">
-        <v>0.4356846473029046</v>
+        <v>0.5109489051094891</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>350</v>
       </c>
       <c r="B35">
-        <v>0.4615384615384616</v>
+        <v>0.5307692307692308</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3252,7 +3252,7 @@
         <v>351</v>
       </c>
       <c r="B36">
-        <v>0.5431034482758621</v>
+        <v>0.6073500967117988</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>352</v>
       </c>
       <c r="B37">
-        <v>0.4676850763807285</v>
+        <v>0.536986301369863</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>353</v>
       </c>
       <c r="B38">
-        <v>0.4956268221574344</v>
+        <v>0.6028368794326241</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>354</v>
       </c>
       <c r="B39">
-        <v>0.5108303249097473</v>
+        <v>0.5847107438016529</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3284,7 +3284,7 @@
         <v>355</v>
       </c>
       <c r="B40">
-        <v>0.4427244582043344</v>
+        <v>0.5276752767527675</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>356</v>
       </c>
       <c r="B41">
-        <v>0.5388127853881278</v>
+        <v>0.6724137931034483</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>357</v>
       </c>
       <c r="B42">
-        <v>0.508695652173913</v>
+        <v>0.5954198473282443</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>358</v>
       </c>
       <c r="B43">
-        <v>0.4849462365591398</v>
+        <v>0.5394736842105263</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>359</v>
       </c>
       <c r="B44">
-        <v>0.5634674922600619</v>
+        <v>0.6190476190476191</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>360</v>
       </c>
       <c r="B45">
-        <v>0.4838709677419355</v>
+        <v>0.5325443786982249</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>361</v>
       </c>
       <c r="B46">
-        <v>0.4741833508956796</v>
+        <v>0.5276145710928319</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>362</v>
       </c>
       <c r="B47">
-        <v>0.4758522727272727</v>
+        <v>0.5475409836065573</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3348,7 +3348,7 @@
         <v>363</v>
       </c>
       <c r="B48">
-        <v>0.4381868131868132</v>
+        <v>0.5325542570951586</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>364</v>
       </c>
       <c r="B49">
-        <v>0.3890909090909091</v>
+        <v>0.4830699774266365</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3364,7 +3364,7 @@
         <v>365</v>
       </c>
       <c r="B50">
-        <v>0.5275590551181102</v>
+        <v>0.5702005730659025</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>366</v>
       </c>
       <c r="B51">
-        <v>0.4313186813186813</v>
+        <v>0.5032051282051282</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>367</v>
       </c>
       <c r="B52">
-        <v>0.489010989010989</v>
+        <v>0.5538221528861155</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>368</v>
       </c>
       <c r="B53">
-        <v>0.5242718446601942</v>
+        <v>0.5827338129496403</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>369</v>
       </c>
       <c r="B54">
-        <v>0.4090909090909091</v>
+        <v>0.4550561797752809</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3404,7 +3404,7 @@
         <v>370</v>
       </c>
       <c r="B55">
-        <v>0.4806131650135257</v>
+        <v>0.5262116716122651</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3412,7 +3412,7 @@
         <v>371</v>
       </c>
       <c r="B56">
-        <v>0.5253012048192771</v>
+        <v>0.6085106382978723</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3420,7 +3420,7 @@
         <v>372</v>
       </c>
       <c r="B57">
-        <v>0.4694444444444444</v>
+        <v>0.5216049382716049</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3428,7 +3428,7 @@
         <v>373</v>
       </c>
       <c r="B58">
-        <v>0.4826589595375723</v>
+        <v>0.5778546712802768</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3436,7 +3436,7 @@
         <v>374</v>
       </c>
       <c r="B59">
-        <v>0.4725274725274725</v>
+        <v>0.5182186234817814</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3444,7 +3444,7 @@
         <v>375</v>
       </c>
       <c r="B60">
-        <v>0.4654654654654655</v>
+        <v>0.5432242990654206</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>376</v>
       </c>
       <c r="B61">
-        <v>0.4703087885985748</v>
+        <v>0.5226666666666666</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3460,7 +3460,7 @@
         <v>377</v>
       </c>
       <c r="B62">
-        <v>0.5031847133757962</v>
+        <v>0.5467128027681661</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3468,7 +3468,7 @@
         <v>378</v>
       </c>
       <c r="B63">
-        <v>0.4634146341463415</v>
+        <v>0.5507246376811594</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>379</v>
       </c>
       <c r="B64">
-        <v>0.5691056910569106</v>
+        <v>0.6422018348623854</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3484,7 +3484,7 @@
         <v>380</v>
       </c>
       <c r="B65">
-        <v>0.4813278008298755</v>
+        <v>0.5296803652968036</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>381</v>
       </c>
       <c r="B66">
-        <v>0.4458333333333334</v>
+        <v>0.5144230769230769</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>382</v>
       </c>
       <c r="B67">
-        <v>0.4830508474576271</v>
+        <v>0.5352112676056338</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>383</v>
       </c>
       <c r="B68">
-        <v>0.4947368421052631</v>
+        <v>0.5664939550949913</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3516,7 +3516,7 @@
         <v>384</v>
       </c>
       <c r="B69">
-        <v>0.4985754985754986</v>
+        <v>0.5559105431309904</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3524,7 +3524,7 @@
         <v>385</v>
       </c>
       <c r="B70">
-        <v>0.4615384615384616</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3532,7 +3532,7 @@
         <v>386</v>
       </c>
       <c r="B71">
-        <v>0.4960159362549801</v>
+        <v>0.5595505617977528</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>387</v>
       </c>
       <c r="B72">
-        <v>0.5066505441354293</v>
+        <v>0.5595716198125836</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>388</v>
       </c>
       <c r="B73">
-        <v>0.5099337748344371</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>389</v>
       </c>
       <c r="B74">
-        <v>0.5011655011655012</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>390</v>
       </c>
       <c r="B75">
-        <v>0.5068493150684932</v>
+        <v>0.5803921568627451</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>391</v>
       </c>
       <c r="B76">
-        <v>0.4288702928870293</v>
+        <v>0.4846335697399527</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>392</v>
       </c>
       <c r="B77">
-        <v>0.4828660436137072</v>
+        <v>0.5308219178082192</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>393</v>
       </c>
       <c r="B78">
-        <v>0.4358974358974359</v>
+        <v>0.5134228187919463</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>394</v>
       </c>
       <c r="B79">
-        <v>0.5382003395585738</v>
+        <v>0.6030534351145038</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>395</v>
       </c>
       <c r="B80">
-        <v>0.5254237288135594</v>
+        <v>0.5857220118983234</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>396</v>
       </c>
       <c r="B81">
-        <v>0.5519125683060109</v>
+        <v>0.6253869969040248</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>397</v>
       </c>
       <c r="B82">
-        <v>0.5089722675367048</v>
+        <v>0.5644283121597096</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>398</v>
       </c>
       <c r="B83">
-        <v>0.4919354838709677</v>
+        <v>0.5507692307692308</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>399</v>
       </c>
       <c r="B84">
-        <v>0.5355029585798816</v>
+        <v>0.5915032679738562</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>400</v>
       </c>
       <c r="B85">
-        <v>0.4666666666666667</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>401</v>
       </c>
       <c r="B86">
-        <v>0.4984423676012461</v>
+        <v>0.5470085470085471</v>
       </c>
     </row>
   </sheetData>
@@ -3792,25 +3792,25 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.4778757719001733</v>
+        <v>0.5489664186953344</v>
       </c>
       <c r="D2">
-        <v>0.01258989044808077</v>
+        <v>0.01253121277418057</v>
       </c>
       <c r="E2">
-        <v>0.4684512428298279</v>
+        <v>0.5364455364455365</v>
       </c>
       <c r="F2">
-        <v>0.4707267013285209</v>
+        <v>0.5426956597890333</v>
       </c>
       <c r="G2">
-        <v>0.4730021598272138</v>
+        <v>0.5489457831325302</v>
       </c>
       <c r="H2">
-        <v>0.482588036435346</v>
+        <v>0.5552268598202333</v>
       </c>
       <c r="I2">
-        <v>0.4921739130434782</v>
+        <v>0.5615079365079365</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3821,25 +3821,25 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0.4733816217558202</v>
+        <v>0.546860632430707</v>
       </c>
       <c r="D3">
-        <v>0.01972990198970789</v>
+        <v>0.02267932598156189</v>
       </c>
       <c r="E3">
-        <v>0.4466666666666667</v>
+        <v>0.5150214592274678</v>
       </c>
       <c r="F3">
-        <v>0.4603477107147343</v>
+        <v>0.5272838042547586</v>
       </c>
       <c r="G3">
-        <v>0.4635958395245171</v>
+        <v>0.5498676081200353</v>
       </c>
       <c r="H3">
-        <v>0.4882359300047294</v>
+        <v>0.5626523172445874</v>
       </c>
       <c r="I3">
-        <v>0.5081967213114754</v>
+        <v>0.5803468208092486</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3850,25 +3850,25 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.4910570027923108</v>
+        <v>0.5547029696786433</v>
       </c>
       <c r="D4">
-        <v>0.02397285429753152</v>
+        <v>0.02812371863931324</v>
       </c>
       <c r="E4">
-        <v>0.4603448275862069</v>
+        <v>0.5253863134657837</v>
       </c>
       <c r="F4">
-        <v>0.4748735017867872</v>
+        <v>0.5320153580639531</v>
       </c>
       <c r="G4">
-        <v>0.483089149957777</v>
+        <v>0.5444068594588786</v>
       </c>
       <c r="H4">
-        <v>0.5095198188661492</v>
+        <v>0.5788121206373293</v>
       </c>
       <c r="I4">
-        <v>0.5310344827586206</v>
+        <v>0.6005398110661269</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3879,25 +3879,25 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>0.4974393391115691</v>
+        <v>0.5611348005740863</v>
       </c>
       <c r="D5">
-        <v>0.02922451320475909</v>
+        <v>0.03414622812015732</v>
       </c>
       <c r="E5">
-        <v>0.4324324324324325</v>
+        <v>0.4883303411131059</v>
       </c>
       <c r="F5">
-        <v>0.4734586273565055</v>
+        <v>0.5427525580869467</v>
       </c>
       <c r="G5">
-        <v>0.5006877579092159</v>
+        <v>0.5669642857142857</v>
       </c>
       <c r="H5">
-        <v>0.5257308577470922</v>
+        <v>0.5831718354923046</v>
       </c>
       <c r="I5">
-        <v>0.5416666666666666</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3908,25 +3908,25 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0.5033597862255773</v>
+        <v>0.56432451336828</v>
       </c>
       <c r="D6">
-        <v>0.0294391226395669</v>
+        <v>0.02716978552325401</v>
       </c>
       <c r="E6">
-        <v>0.4601769911504425</v>
+        <v>0.5226130653266332</v>
       </c>
       <c r="F6">
-        <v>0.4826038939575977</v>
+        <v>0.5506608765629863</v>
       </c>
       <c r="G6">
-        <v>0.5023966472754811</v>
+        <v>0.5613750618034634</v>
       </c>
       <c r="H6">
-        <v>0.5167156862745098</v>
+        <v>0.5785361150936866</v>
       </c>
       <c r="I6">
-        <v>0.5741857659831122</v>
+        <v>0.6177248677248677</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3937,25 +3937,25 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0.4805122195115445</v>
+        <v>0.5438745743583083</v>
       </c>
       <c r="D7">
-        <v>0.03527284166689584</v>
+        <v>0.04024439780585341</v>
       </c>
       <c r="E7">
-        <v>0.3852631578947369</v>
+        <v>0.458072590738423</v>
       </c>
       <c r="F7">
-        <v>0.4581069476277621</v>
+        <v>0.5146014612402637</v>
       </c>
       <c r="G7">
-        <v>0.4781273710577646</v>
+        <v>0.5433707175889515</v>
       </c>
       <c r="H7">
-        <v>0.4983230540145711</v>
+        <v>0.5673843034351145</v>
       </c>
       <c r="I7">
-        <v>0.5652173913043478</v>
+        <v>0.6419753086419753</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3966,25 +3966,25 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>0.482000949098484</v>
+        <v>0.5466365942199515</v>
       </c>
       <c r="D8">
-        <v>0.03819705723669906</v>
+        <v>0.02959742315554943</v>
       </c>
       <c r="E8">
-        <v>0.4117647058823529</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="F8">
-        <v>0.45</v>
+        <v>0.5325443786982249</v>
       </c>
       <c r="G8">
-        <v>0.4885290148448043</v>
+        <v>0.551829268292683</v>
       </c>
       <c r="H8">
-        <v>0.5068965517241379</v>
+        <v>0.5669398907103825</v>
       </c>
       <c r="I8">
-        <v>0.547945205479452</v>
+        <v>0.5873015873015873</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3995,25 +3995,25 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.4915513598130792</v>
+        <v>0.5430245819149619</v>
       </c>
       <c r="D9">
-        <v>0.04430237610217377</v>
+        <v>0.04071875956504733</v>
       </c>
       <c r="E9">
-        <v>0.4483240223463687</v>
+        <v>0.5031347962382445</v>
       </c>
       <c r="F9">
-        <v>0.462211308520712</v>
+        <v>0.5092274510569359</v>
       </c>
       <c r="G9">
-        <v>0.4791007626474411</v>
+        <v>0.5346384312284356</v>
       </c>
       <c r="H9">
-        <v>0.5082896675945636</v>
+        <v>0.5704705622301971</v>
       </c>
       <c r="I9">
-        <v>0.5681818181818182</v>
+        <v>0.6025641025641025</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4024,25 +4024,25 @@
         <v>47</v>
       </c>
       <c r="C10">
-        <v>0.481007755752598</v>
+        <v>0.547994773755347</v>
       </c>
       <c r="D10">
-        <v>0.03558494576148535</v>
+        <v>0.03683419213252605</v>
       </c>
       <c r="E10">
-        <v>0.3996865203761755</v>
+        <v>0.46875</v>
       </c>
       <c r="F10">
-        <v>0.452428491140888</v>
+        <v>0.5291231711326648</v>
       </c>
       <c r="G10">
-        <v>0.4828282828282828</v>
+        <v>0.5494028230184582</v>
       </c>
       <c r="H10">
-        <v>0.5106567949868832</v>
+        <v>0.5754633528916326</v>
       </c>
       <c r="I10">
-        <v>0.547945205479452</v>
+        <v>0.6260162601626016</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4053,25 +4053,25 @@
         <v>140</v>
       </c>
       <c r="C11">
-        <v>0.4798853615793762</v>
+        <v>0.5457379379057981</v>
       </c>
       <c r="D11">
-        <v>0.03893570332042907</v>
+        <v>0.04351288389202657</v>
       </c>
       <c r="E11">
-        <v>0.3996960486322189</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="F11">
-        <v>0.4550436556215559</v>
+        <v>0.5127879734478719</v>
       </c>
       <c r="G11">
-        <v>0.4817045961624274</v>
+        <v>0.5477707006369427</v>
       </c>
       <c r="H11">
-        <v>0.5058268929759342</v>
+        <v>0.5729997341839447</v>
       </c>
       <c r="I11">
-        <v>0.6031746031746031</v>
+        <v>0.6826347305389222</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4082,25 +4082,25 @@
         <v>85</v>
       </c>
       <c r="C12">
-        <v>0.4872163179389261</v>
+        <v>0.552660792213204</v>
       </c>
       <c r="D12">
-        <v>0.0386121419766441</v>
+        <v>0.0412201642885352</v>
       </c>
       <c r="E12">
-        <v>0.3870967741935484</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="F12">
-        <v>0.4654654654654655</v>
+        <v>0.5276752767527675</v>
       </c>
       <c r="G12">
-        <v>0.4878048780487805</v>
+        <v>0.5486725663716814</v>
       </c>
       <c r="H12">
-        <v>0.5088757396449705</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I12">
-        <v>0.5732899022801303</v>
+        <v>0.6724137931034483</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4129,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.4917073170731707</v>
+        <v>0.5803468208092486</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4137,7 +4137,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.4562737642585551</v>
+        <v>0.5150214592274678</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4145,7 +4145,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.4466666666666667</v>
+        <v>0.5317460317460317</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4153,7 +4153,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.4618138424821002</v>
+        <v>0.5208613728129206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4161,7 +4161,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.5081967213114754</v>
+        <v>0.5778008298755186</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4169,7 +4169,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.4626593806921676</v>
+        <v>0.5228215767634855</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4177,7 +4177,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.4635958395245171</v>
+        <v>0.5498676081200353</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4185,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.4588815789473684</v>
+        <v>0.5406976744186046</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4193,7 +4193,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.4847645429362881</v>
+        <v>0.5509989484752892</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4201,7 +4201,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.4736842105263158</v>
+        <v>0.5609243697478992</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4209,7 +4209,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.4989539748953975</v>
+        <v>0.5643802647412756</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +4251,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.4816132858837485</v>
+        <v>0.5450874831763123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4259,7 +4259,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.4776699029126213</v>
+        <v>0.5253863134657837</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4267,7 +4267,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.5310344827586206</v>
+        <v>0.5796661608497724</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4275,7 +4275,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.5137614678899083</v>
+        <v>0.5989304812834224</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4283,7 +4283,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.524822695035461</v>
+        <v>0.5904255319148937</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4291,7 +4291,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.4845650140318054</v>
+        <v>0.5323741007194245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4299,7 +4299,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.4897260273972603</v>
+        <v>0.5437262357414449</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4307,7 +4307,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>0.4807916181606519</v>
+        <v>0.5281329923273658</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4315,7 +4315,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>0.5266272189349113</v>
+        <v>0.6005398110661269</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4323,7 +4323,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.4739413680781759</v>
+        <v>0.5262206148282098</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4331,7 +4331,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>0.4967948717948718</v>
+        <v>0.57625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4339,7 +4339,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>0.4722222222222222</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4347,7 +4347,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>0.4603448275862069</v>
+        <v>0.5417515274949084</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4355,7 +4355,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>0.4608830364058869</v>
+        <v>0.531895777178796</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +4400,7 @@
         <v>30</v>
       </c>
       <c r="B2">
-        <v>0.4965612104539202</v>
+        <v>0.554531490015361</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.4653465346534654</v>
+        <v>0.5497076023391813</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>0.5311843027330063</v>
+        <v>0.5910867865519938</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>0.4644549763033176</v>
+        <v>0.5268817204301075</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>0.479957805907173</v>
+        <v>0.5469879518072289</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>0.526824034334764</v>
+        <v>0.5790094339622641</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>0.4543761638733706</v>
+        <v>0.4989775051124745</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0.5269461077844312</v>
+        <v>0.5852842809364549</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4464,7 +4464,7 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>0.5282199710564399</v>
+        <v>0.5902439024390244</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>39</v>
       </c>
       <c r="B11">
-        <v>0.508</v>
+        <v>0.5669642857142857</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>40</v>
       </c>
       <c r="B12">
-        <v>0.528169014084507</v>
+        <v>0.5859375</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>41</v>
       </c>
       <c r="B13">
-        <v>0.473551637279597</v>
+        <v>0.5236768802228412</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>42</v>
       </c>
       <c r="B14">
-        <v>0.4324324324324325</v>
+        <v>0.4883303411131059</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4504,7 +4504,7 @@
         <v>43</v>
       </c>
       <c r="B15">
-        <v>0.5246376811594203</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>44</v>
       </c>
       <c r="B16">
-        <v>0.4671307037896365</v>
+        <v>0.5243478260869565</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>45</v>
       </c>
       <c r="B17">
-        <v>0.5070603337612324</v>
+        <v>0.5712209302325582</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>46</v>
       </c>
       <c r="B18">
-        <v>0.473365617433414</v>
+        <v>0.538781163434903</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>47</v>
       </c>
       <c r="B19">
-        <v>0.5416666666666666</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>48</v>
       </c>
       <c r="B20">
-        <v>0.4976744186046512</v>
+        <v>0.5605263157894737</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>49</v>
       </c>
       <c r="B21">
-        <v>0.5023696682464455</v>
+        <v>0.5955056179775281</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>50</v>
       </c>
       <c r="B22">
-        <v>0.5006877579092159</v>
+        <v>0.5810593900481541</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>51</v>
       </c>
       <c r="B23">
-        <v>0.5400593471810089</v>
+        <v>0.5915032679738562</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>52</v>
       </c>
       <c r="B24">
-        <v>0.491362763915547</v>
+        <v>0.5467239527389903</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>53</v>
       </c>
       <c r="B25">
-        <v>0.514336917562724</v>
+        <v>0.5743380855397149</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>54</v>
       </c>
       <c r="B26">
-        <v>0.4626865671641791</v>
+        <v>0.5610859728506787</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>55</v>
       </c>
       <c r="B27">
-        <v>0.4788461538461539</v>
+        <v>0.51875</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>56</v>
       </c>
       <c r="B28">
-        <v>0.5129533678756477</v>
+        <v>0.5722543352601156</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>57</v>
       </c>
       <c r="B2">
-        <v>0.4758842443729904</v>
+        <v>0.524822695035461</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>58</v>
       </c>
       <c r="B3">
-        <v>0.5210355987055016</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>59</v>
       </c>
       <c r="B4">
-        <v>0.5157563025210085</v>
+        <v>0.5624284077892325</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>60</v>
       </c>
       <c r="B5">
-        <v>0.5166666666666667</v>
+        <v>0.5772811918063314</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>61</v>
       </c>
       <c r="B6">
-        <v>0.5035971223021583</v>
+        <v>0.5603217158176944</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>62</v>
       </c>
       <c r="B7">
-        <v>0.4601769911504425</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>63</v>
       </c>
       <c r="B8">
-        <v>0.4879406307977737</v>
+        <v>0.5433884297520661</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>0.4840182648401826</v>
+        <v>0.5226130653266332</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>65</v>
       </c>
       <c r="B10">
-        <v>0.478360781309843</v>
+        <v>0.5625566636446057</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>66</v>
       </c>
       <c r="B11">
-        <v>0.5168627450980392</v>
+        <v>0.5823008849557522</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>67</v>
       </c>
       <c r="B12">
-        <v>0.4945205479452055</v>
+        <v>0.5529953917050692</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>68</v>
       </c>
       <c r="B13">
-        <v>0.5741857659831122</v>
+        <v>0.6177248677248677</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>69</v>
       </c>
       <c r="B14">
-        <v>0.5479115479115479</v>
+        <v>0.6082191780821918</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>0.4684431977559607</v>
+        <v>0.5436573311367381</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>71</v>
       </c>
       <c r="B16">
-        <v>0.5072</v>
+        <v>0.5627240143369175</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>72</v>
       </c>
       <c r="B17">
-        <v>0.5011961722488039</v>
+        <v>0.5549668874172186</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4833,7 @@
         <v>73</v>
       </c>
       <c r="B2">
-        <v>0.4392824287028519</v>
+        <v>0.4889232354456466</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>74</v>
       </c>
       <c r="B3">
-        <v>0.4392824287028519</v>
+        <v>0.4889232354456466</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>75</v>
       </c>
       <c r="B4">
-        <v>0.4801381692573403</v>
+        <v>0.5366795366795367</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>76</v>
       </c>
       <c r="B5">
-        <v>0.4616151545363908</v>
+        <v>0.5513905683192262</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>77</v>
       </c>
       <c r="B6">
-        <v>0.448051948051948</v>
+        <v>0.5073529411764706</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>78</v>
       </c>
       <c r="B7">
-        <v>0.4540229885057471</v>
+        <v>0.4994731296101159</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>79</v>
       </c>
       <c r="B8">
-        <v>0.4597495527728086</v>
+        <v>0.523517382413088</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>80</v>
       </c>
       <c r="B9">
-        <v>0.4935400516795866</v>
+        <v>0.5528219971056439</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>81</v>
       </c>
       <c r="B10">
-        <v>0.4901185770750988</v>
+        <v>0.566412213740458</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>82</v>
       </c>
       <c r="B11">
-        <v>0.5008264462809917</v>
+        <v>0.5480329368709973</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>83</v>
       </c>
       <c r="B12">
-        <v>0.5212418300653595</v>
+        <v>0.5696428571428571</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>84</v>
       </c>
       <c r="B13">
-        <v>0.5165876777251185</v>
+        <v>0.5677083333333334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>85</v>
       </c>
       <c r="B14">
-        <v>0.4912280701754386</v>
+        <v>0.5614035087719298</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>86</v>
       </c>
       <c r="B15">
-        <v>0.4850299401197605</v>
+        <v>0.5851851851851851</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>87</v>
       </c>
       <c r="B16">
-        <v>0.3852631578947369</v>
+        <v>0.458072590738423</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>88</v>
       </c>
       <c r="B17">
-        <v>0.4716106604866744</v>
+        <v>0.5390728476821192</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>89</v>
       </c>
       <c r="B18">
-        <v>0.4443155452436195</v>
+        <v>0.4973890339425587</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>90</v>
       </c>
       <c r="B19">
-        <v>0.456353591160221</v>
+        <v>0.5143212951432129</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>91</v>
       </c>
       <c r="B20">
-        <v>0.4795539033457249</v>
+        <v>0.5397489539748954</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>92</v>
       </c>
       <c r="B21">
-        <v>0.5068493150684932</v>
+        <v>0.581151832460733</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>93</v>
       </c>
       <c r="B22">
-        <v>0.4986072423398329</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>94</v>
       </c>
       <c r="B23">
-        <v>0.5213219616204691</v>
+        <v>0.5943970767356882</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>95</v>
       </c>
       <c r="B24">
-        <v>0.4767008387698043</v>
+        <v>0.5306443163960188</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>96</v>
       </c>
       <c r="B25">
-        <v>0.4767008387698043</v>
+        <v>0.5306443163960188</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5025,7 +5025,7 @@
         <v>97</v>
       </c>
       <c r="B26">
-        <v>0.4767008387698043</v>
+        <v>0.5306443163960188</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>98</v>
       </c>
       <c r="B27">
-        <v>0.4641148325358851</v>
+        <v>0.5154419595314164</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>99</v>
       </c>
       <c r="B28">
-        <v>0.5652173913043478</v>
+        <v>0.6419753086419753</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>100</v>
       </c>
       <c r="B29">
-        <v>0.4974704890387858</v>
+        <v>0.5469924812030075</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>101</v>
       </c>
       <c r="B30">
-        <v>0.4596651445966514</v>
+        <v>0.5137931034482759</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>102</v>
       </c>
       <c r="B31">
-        <v>0.4575875486381323</v>
+        <v>0.5501405810684161</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>103</v>
       </c>
       <c r="B32">
-        <v>0.4907801418439716</v>
+        <v>0.5492063492063493</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>104</v>
       </c>
       <c r="B33">
-        <v>0.4464285714285715</v>
+        <v>0.4970178926441352</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>105</v>
       </c>
       <c r="B34">
-        <v>0.5273743016759777</v>
+        <v>0.6049222797927462</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>106</v>
       </c>
       <c r="B35">
-        <v>0.5540838852097131</v>
+        <v>0.6136919315403423</v>
       </c>
     </row>
   </sheetData>
@@ -5162,7 +5162,7 @@
         <v>107</v>
       </c>
       <c r="B2">
-        <v>0.4407484407484408</v>
+        <v>0.5108433734939759</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>108</v>
       </c>
       <c r="B3">
-        <v>0.4318181818181818</v>
+        <v>0.4933333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>109</v>
       </c>
       <c r="B4">
-        <v>0.4885290148448043</v>
+        <v>0.551829268292683</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>110</v>
       </c>
       <c r="B5">
-        <v>0.4662813102119461</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>111</v>
       </c>
       <c r="B6">
-        <v>0.4934210526315789</v>
+        <v>0.5597014925373134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>112</v>
       </c>
       <c r="B7">
-        <v>0.4807692307692308</v>
+        <v>0.5320056899004267</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>113</v>
       </c>
       <c r="B8">
-        <v>0.547945205479452</v>
+        <v>0.5825242718446602</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>114</v>
       </c>
       <c r="B9">
-        <v>0.4117647058823529</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>115</v>
       </c>
       <c r="B10">
-        <v>0.5068965517241379</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>116</v>
       </c>
       <c r="B11">
-        <v>0.4986522911051213</v>
+        <v>0.5873015873015873</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>117</v>
       </c>
       <c r="B12">
-        <v>0.4314595660749507</v>
+        <v>0.5481434864694776</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>118</v>
       </c>
       <c r="B13">
-        <v>0.5117521367521367</v>
+        <v>0.572289156626506</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5258,7 +5258,7 @@
         <v>119</v>
       </c>
       <c r="B14">
-        <v>0.5216450216450217</v>
+        <v>0.583941605839416</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5266,7 +5266,7 @@
         <v>120</v>
       </c>
       <c r="B15">
-        <v>0.5037174721189591</v>
+        <v>0.5576131687242798</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5274,7 +5274,7 @@
         <v>121</v>
       </c>
       <c r="B16">
-        <v>0.45</v>
+        <v>0.5325443786982249</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5282,7 +5282,7 @@
         <v>122</v>
       </c>
       <c r="B17">
-        <v>0.5269086357947435</v>
+        <v>0.5669398907103825</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5290,7 +5290,7 @@
         <v>123</v>
       </c>
       <c r="B18">
-        <v>0.4817073170731707</v>
+        <v>0.5374149659863946</v>
       </c>
     </row>
   </sheetData>
@@ -5338,7 +5338,7 @@
         <v>124</v>
       </c>
       <c r="B2">
-        <v>0.4847715736040609</v>
+        <v>0.5488505747126436</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5346,7 +5346,7 @@
         <v>125</v>
       </c>
       <c r="B3">
-        <v>0.5681818181818182</v>
+        <v>0.6025641025641025</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5354,7 +5354,7 @@
         <v>126</v>
       </c>
       <c r="B4">
-        <v>0.5161290322580645</v>
+        <v>0.5776772247360482</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5362,7 +5362,7 @@
         <v>127</v>
       </c>
       <c r="B5">
-        <v>0.4584717607973422</v>
+        <v>0.5054945054945055</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5370,7 +5370,7 @@
         <v>128</v>
       </c>
       <c r="B6">
-        <v>0.4734299516908212</v>
+        <v>0.5204262877442274</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>129</v>
       </c>
       <c r="B7">
-        <v>0.4483240223463687</v>
+        <v>0.5031347962382445</v>
       </c>
     </row>
   </sheetData>
@@ -5415,7 +5415,7 @@
         <v>130</v>
       </c>
       <c r="B2">
-        <v>0.4744268077601411</v>
+        <v>0.5480572597137015</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>131</v>
       </c>
       <c r="B3">
-        <v>0.4927953890489913</v>
+        <v>0.5533980582524272</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>132</v>
       </c>
       <c r="B4">
-        <v>0.4984833164812942</v>
+        <v>0.5516853932584269</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>133</v>
       </c>
       <c r="B5">
-        <v>0.5422535211267606</v>
+        <v>0.6260162601626016</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>134</v>
       </c>
       <c r="B6">
-        <v>0.521551724137931</v>
+        <v>0.594059405940594</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>135</v>
       </c>
       <c r="B7">
-        <v>0.4906103286384976</v>
+        <v>0.5531914893617021</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>136</v>
       </c>
       <c r="B8">
-        <v>0.4686387291153108</v>
+        <v>0.5532679738562092</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>137</v>
       </c>
       <c r="B9">
-        <v>0.5430978613091381</v>
+        <v>0.5985611510791367</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>138</v>
       </c>
       <c r="B10">
-        <v>0.4532710280373832</v>
+        <v>0.5160427807486631</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>139</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.5823754789272031</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>140</v>
       </c>
       <c r="B12">
-        <v>0.5191146881287726</v>
+        <v>0.5890736342042755</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>141</v>
       </c>
       <c r="B13">
-        <v>0.5101404056162246</v>
+        <v>0.5691768826619965</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>142</v>
       </c>
       <c r="B14">
-        <v>0.4429967426710097</v>
+        <v>0.5298701298701298</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>143</v>
       </c>
       <c r="B15">
-        <v>0.4889103182256509</v>
+        <v>0.5494028230184582</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>144</v>
       </c>
       <c r="B16">
-        <v>0.4352201257861635</v>
+        <v>0.521870286576169</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>145</v>
       </c>
       <c r="B17">
-        <v>0.4381443298969072</v>
+        <v>0.4739776951672863</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>146</v>
       </c>
       <c r="B18">
-        <v>0.4798387096774194</v>
+        <v>0.5349887133182845</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>147</v>
       </c>
       <c r="B19">
-        <v>0.503448275862069</v>
+        <v>0.5572519083969466</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>148</v>
       </c>
       <c r="B20">
-        <v>0.4482758620689655</v>
+        <v>0.5257352941176471</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>149</v>
       </c>
       <c r="B21">
-        <v>0.4803921568627451</v>
+        <v>0.5298372513562387</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>150</v>
       </c>
       <c r="B22">
-        <v>0.5090497737556561</v>
+        <v>0.5818181818181818</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>151</v>
       </c>
       <c r="B23">
-        <v>0.4176646706586826</v>
+        <v>0.5284090909090909</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>152</v>
       </c>
       <c r="B24">
-        <v>0.4805771365149833</v>
+        <v>0.5347394540942928</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>153</v>
       </c>
       <c r="B25">
-        <v>0.4908616187989556</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>154</v>
       </c>
       <c r="B26">
-        <v>0.4596491228070175</v>
+        <v>0.5458333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>155</v>
       </c>
       <c r="B27">
-        <v>0.4475465313028765</v>
+        <v>0.4925093632958801</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>156</v>
       </c>
       <c r="B28">
-        <v>0.5274725274725275</v>
+        <v>0.5798611111111112</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>0.4358620689655173</v>
+        <v>0.4839203675344563</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>158</v>
       </c>
       <c r="B30">
-        <v>0.4229480737018426</v>
+        <v>0.4693308550185873</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>159</v>
       </c>
       <c r="B31">
-        <v>0.4690721649484536</v>
+        <v>0.5419161676646707</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>160</v>
       </c>
       <c r="B32">
-        <v>0.4474885844748858</v>
+        <v>0.5212765957446809</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>161</v>
       </c>
       <c r="B33">
-        <v>0.4528795811518325</v>
+        <v>0.5389408099688473</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>162</v>
       </c>
       <c r="B34">
-        <v>0.5202312138728323</v>
+        <v>0.5750798722044729</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>163</v>
       </c>
       <c r="B35">
-        <v>0.3996865203761755</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>164</v>
       </c>
       <c r="B36">
-        <v>0.5114503816793893</v>
+        <v>0.56657223796034</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>165</v>
       </c>
       <c r="B37">
-        <v>0.48301329394387</v>
+        <v>0.5565068493150684</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>166</v>
       </c>
       <c r="B38">
-        <v>0.5131578947368421</v>
+        <v>0.580952380952381</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>167</v>
       </c>
       <c r="B39">
-        <v>0.5227272727272727</v>
+        <v>0.5758468335787923</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>168</v>
       </c>
       <c r="B40">
-        <v>0.547945205479452</v>
+        <v>0.6106870229007634</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>169</v>
       </c>
       <c r="B41">
-        <v>0.4721189591078067</v>
+        <v>0.5313807531380753</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>170</v>
       </c>
       <c r="B42">
-        <v>0.512539184952978</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>171</v>
       </c>
       <c r="B43">
-        <v>0.4828282828282828</v>
+        <v>0.5446224256292906</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>172</v>
       </c>
       <c r="B44">
-        <v>0.4915848527349229</v>
+        <v>0.5634146341463414</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>173</v>
       </c>
       <c r="B45">
-        <v>0.4385749385749386</v>
+        <v>0.5096913137114142</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>174</v>
       </c>
       <c r="B46">
-        <v>0.4556737588652482</v>
+        <v>0.5340659340659341</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>175</v>
       </c>
       <c r="B47">
-        <v>0.4519774011299435</v>
+        <v>0.5095541401273885</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>176</v>
       </c>
       <c r="B48">
-        <v>0.5111731843575419</v>
+        <v>0.5535168195718655</v>
       </c>
     </row>
   </sheetData>
